--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Hsp90aa1-Fgfr3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Hsp90aa1-Fgfr3.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>157.7984646666667</v>
+        <v>79.20169066666666</v>
       </c>
       <c r="H2">
-        <v>473.395394</v>
+        <v>237.605072</v>
       </c>
       <c r="I2">
-        <v>0.341075365555871</v>
+        <v>0.1882902756436698</v>
       </c>
       <c r="J2">
-        <v>0.3410753655558709</v>
+        <v>0.1882902756436699</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.408252</v>
+        <v>6.045145666666667</v>
       </c>
       <c r="N2">
-        <v>19.224756</v>
+        <v>18.135437</v>
       </c>
       <c r="O2">
-        <v>0.8583439096634812</v>
+        <v>0.8160840232643366</v>
       </c>
       <c r="P2">
-        <v>0.8583439096634812</v>
+        <v>0.8160840232643367</v>
       </c>
       <c r="Q2">
-        <v>1011.212326797096</v>
+        <v>478.7857571262738</v>
       </c>
       <c r="R2">
-        <v>9100.910941173865</v>
+        <v>4309.071814136465</v>
       </c>
       <c r="S2">
-        <v>0.2927599627611273</v>
+        <v>0.153660685688837</v>
       </c>
       <c r="T2">
-        <v>0.2927599627611273</v>
+        <v>0.1536606856888371</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>157.7984646666667</v>
+        <v>79.20169066666666</v>
       </c>
       <c r="H3">
-        <v>473.395394</v>
+        <v>237.605072</v>
       </c>
       <c r="I3">
-        <v>0.341075365555871</v>
+        <v>0.1882902756436698</v>
       </c>
       <c r="J3">
-        <v>0.3410753655558709</v>
+        <v>0.1882902756436699</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>2.04733</v>
       </c>
       <c r="O3">
-        <v>0.09140887075868921</v>
+        <v>0.09212864864242169</v>
       </c>
       <c r="P3">
-        <v>0.09140887075868921</v>
+        <v>0.09212864864242169</v>
       </c>
       <c r="Q3">
-        <v>107.6885102220022</v>
+        <v>54.05066578419556</v>
       </c>
       <c r="R3">
-        <v>969.19659199802</v>
+        <v>486.4559920577601</v>
       </c>
       <c r="S3">
-        <v>0.03117731400906929</v>
+        <v>0.01734692864756039</v>
       </c>
       <c r="T3">
-        <v>0.03117731400906928</v>
+        <v>0.01734692864756039</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>157.7984646666667</v>
+        <v>79.20169066666666</v>
       </c>
       <c r="H4">
-        <v>473.395394</v>
+        <v>237.605072</v>
       </c>
       <c r="I4">
-        <v>0.341075365555871</v>
+        <v>0.1882902756436698</v>
       </c>
       <c r="J4">
-        <v>0.3410753655558709</v>
+        <v>0.1882902756436699</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.3751373333333334</v>
+        <v>0.6799149999999999</v>
       </c>
       <c r="N4">
-        <v>1.125412</v>
+        <v>2.039745</v>
       </c>
       <c r="O4">
-        <v>0.05024721957782963</v>
+        <v>0.09178732809324164</v>
       </c>
       <c r="P4">
-        <v>0.05024721957782963</v>
+        <v>0.09178732809324165</v>
       </c>
       <c r="Q4">
-        <v>59.19609523914756</v>
+        <v>53.85041750962666</v>
       </c>
       <c r="R4">
-        <v>532.7648571523281</v>
+        <v>484.65375758664</v>
       </c>
       <c r="S4">
-        <v>0.01713808878567436</v>
+        <v>0.01728266130727243</v>
       </c>
       <c r="T4">
-        <v>0.01713808878567436</v>
+        <v>0.01728266130727243</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,10 +729,10 @@
         <v>382.53283</v>
       </c>
       <c r="I5">
-        <v>0.2756100428585324</v>
+        <v>0.3031383606299999</v>
       </c>
       <c r="J5">
-        <v>0.2756100428585324</v>
+        <v>0.3031383606299999</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.408252</v>
+        <v>6.045145666666667</v>
       </c>
       <c r="N5">
-        <v>19.224756</v>
+        <v>18.135437</v>
       </c>
       <c r="O5">
-        <v>0.8583439096634812</v>
+        <v>0.8160840232643366</v>
       </c>
       <c r="P5">
-        <v>0.8583439096634812</v>
+        <v>0.8160840232643367</v>
       </c>
       <c r="Q5">
-        <v>817.1222576377199</v>
+        <v>770.8222265440789</v>
       </c>
       <c r="R5">
-        <v>7354.10031873948</v>
+        <v>6937.400038896711</v>
       </c>
       <c r="S5">
-        <v>0.2365682017297123</v>
+        <v>0.2473863729486857</v>
       </c>
       <c r="T5">
-        <v>0.2365682017297123</v>
+        <v>0.2473863729486858</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>382.53283</v>
       </c>
       <c r="I6">
-        <v>0.2756100428585324</v>
+        <v>0.3031383606299999</v>
       </c>
       <c r="J6">
-        <v>0.2756100428585324</v>
+        <v>0.3031383606299999</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,10 +809,10 @@
         <v>2.04733</v>
       </c>
       <c r="O6">
-        <v>0.09140887075868921</v>
+        <v>0.09212864864242169</v>
       </c>
       <c r="P6">
-        <v>0.09140887075868921</v>
+        <v>0.09212864864242169</v>
       </c>
       <c r="Q6">
         <v>87.01899320487779</v>
@@ -821,10 +821,10 @@
         <v>783.1709388439</v>
       </c>
       <c r="S6">
-        <v>0.02519320278745238</v>
+        <v>0.02792772751652098</v>
       </c>
       <c r="T6">
-        <v>0.02519320278745238</v>
+        <v>0.02792772751652098</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>382.53283</v>
       </c>
       <c r="I7">
-        <v>0.2756100428585324</v>
+        <v>0.3031383606299999</v>
       </c>
       <c r="J7">
-        <v>0.2756100428585324</v>
+        <v>0.3031383606299999</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.3751373333333334</v>
+        <v>0.6799149999999999</v>
       </c>
       <c r="N7">
-        <v>1.125412</v>
+        <v>2.039745</v>
       </c>
       <c r="O7">
-        <v>0.05024721957782963</v>
+        <v>0.09178732809324164</v>
       </c>
       <c r="P7">
-        <v>0.05024721957782963</v>
+        <v>0.09178732809324165</v>
       </c>
       <c r="Q7">
-        <v>47.83411525288445</v>
+        <v>86.69660303648332</v>
       </c>
       <c r="R7">
-        <v>430.50703727596</v>
+        <v>780.2694273283499</v>
       </c>
       <c r="S7">
-        <v>0.01384863834136771</v>
+        <v>0.02782426016479321</v>
       </c>
       <c r="T7">
-        <v>0.01384863834136771</v>
+        <v>0.02782426016479321</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>91.212982</v>
+        <v>128.6091306666667</v>
       </c>
       <c r="H8">
-        <v>273.638946</v>
+        <v>385.827392</v>
       </c>
       <c r="I8">
-        <v>0.1971533832398742</v>
+        <v>0.3057491381773125</v>
       </c>
       <c r="J8">
-        <v>0.1971533832398741</v>
+        <v>0.3057491381773124</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.408252</v>
+        <v>6.045145666666667</v>
       </c>
       <c r="N8">
-        <v>19.224756</v>
+        <v>18.135437</v>
       </c>
       <c r="O8">
-        <v>0.8583439096634812</v>
+        <v>0.8160840232643366</v>
       </c>
       <c r="P8">
-        <v>0.8583439096634812</v>
+        <v>0.8160840232643367</v>
       </c>
       <c r="Q8">
-        <v>584.515774327464</v>
+        <v>777.4609289433673</v>
       </c>
       <c r="R8">
-        <v>5260.641968947175</v>
+        <v>6997.148360490306</v>
       </c>
       <c r="S8">
-        <v>0.1692254057734962</v>
+        <v>0.2495169867933447</v>
       </c>
       <c r="T8">
-        <v>0.1692254057734962</v>
+        <v>0.2495169867933447</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>91.212982</v>
+        <v>128.6091306666667</v>
       </c>
       <c r="H9">
-        <v>273.638946</v>
+        <v>385.827392</v>
       </c>
       <c r="I9">
-        <v>0.1971533832398742</v>
+        <v>0.3057491381773125</v>
       </c>
       <c r="J9">
-        <v>0.1971533832398741</v>
+        <v>0.3057491381773124</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,22 +995,22 @@
         <v>2.04733</v>
       </c>
       <c r="O9">
-        <v>0.09140887075868921</v>
+        <v>0.09212864864242169</v>
       </c>
       <c r="P9">
-        <v>0.09140887075868921</v>
+        <v>0.09212864864242169</v>
       </c>
       <c r="Q9">
-        <v>62.24769147935334</v>
+        <v>87.76844382926224</v>
       </c>
       <c r="R9">
-        <v>560.22922331418</v>
+        <v>789.9159944633601</v>
       </c>
       <c r="S9">
-        <v>0.01802156812821198</v>
+        <v>0.02816825492386086</v>
       </c>
       <c r="T9">
-        <v>0.01802156812821198</v>
+        <v>0.02816825492386086</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>91.212982</v>
+        <v>128.6091306666667</v>
       </c>
       <c r="H10">
-        <v>273.638946</v>
+        <v>385.827392</v>
       </c>
       <c r="I10">
-        <v>0.1971533832398742</v>
+        <v>0.3057491381773125</v>
       </c>
       <c r="J10">
-        <v>0.1971533832398741</v>
+        <v>0.3057491381773124</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.3751373333333334</v>
+        <v>0.6799149999999999</v>
       </c>
       <c r="N10">
-        <v>1.125412</v>
+        <v>2.039745</v>
       </c>
       <c r="O10">
-        <v>0.05024721957782963</v>
+        <v>0.09178732809324164</v>
       </c>
       <c r="P10">
-        <v>0.05024721957782963</v>
+        <v>0.09178732809324165</v>
       </c>
       <c r="Q10">
-        <v>34.21739483286134</v>
+        <v>87.44327707722667</v>
       </c>
       <c r="R10">
-        <v>307.956553495752</v>
+        <v>786.98949369504</v>
       </c>
       <c r="S10">
-        <v>0.009906409338165953</v>
+        <v>0.02806389646010685</v>
       </c>
       <c r="T10">
-        <v>0.009906409338165953</v>
+        <v>0.02806389646010685</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>86.127454</v>
+        <v>85.31435366666666</v>
       </c>
       <c r="H11">
-        <v>258.382362</v>
+        <v>255.943061</v>
       </c>
       <c r="I11">
-        <v>0.1861612083457225</v>
+        <v>0.2028222255490178</v>
       </c>
       <c r="J11">
-        <v>0.1861612083457225</v>
+        <v>0.2028222255490178</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>6.408252</v>
+        <v>6.045145666666667</v>
       </c>
       <c r="N11">
-        <v>19.224756</v>
+        <v>18.135437</v>
       </c>
       <c r="O11">
-        <v>0.8583439096634812</v>
+        <v>0.8160840232643366</v>
       </c>
       <c r="P11">
-        <v>0.8583439096634812</v>
+        <v>0.8160840232643367</v>
       </c>
       <c r="Q11">
-        <v>551.9264293504081</v>
+        <v>515.7376953725175</v>
       </c>
       <c r="R11">
-        <v>4967.337864153672</v>
+        <v>4641.639258352658</v>
       </c>
       <c r="S11">
-        <v>0.1597903393991453</v>
+        <v>0.1655199778334691</v>
       </c>
       <c r="T11">
-        <v>0.1597903393991453</v>
+        <v>0.1655199778334692</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>86.127454</v>
+        <v>85.31435366666666</v>
       </c>
       <c r="H12">
-        <v>258.382362</v>
+        <v>255.943061</v>
       </c>
       <c r="I12">
-        <v>0.1861612083457225</v>
+        <v>0.2028222255490178</v>
       </c>
       <c r="J12">
-        <v>0.1861612083457225</v>
+        <v>0.2028222255490178</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,22 +1181,22 @@
         <v>2.04733</v>
       </c>
       <c r="O12">
-        <v>0.09140887075868921</v>
+        <v>0.09212864864242169</v>
       </c>
       <c r="P12">
-        <v>0.09140887075868921</v>
+        <v>0.09212864864242169</v>
       </c>
       <c r="Q12">
-        <v>58.77710679927334</v>
+        <v>58.22221189745889</v>
       </c>
       <c r="R12">
-        <v>528.99396119346</v>
+        <v>523.99990707713</v>
       </c>
       <c r="S12">
-        <v>0.01701678583395556</v>
+        <v>0.01868573755447946</v>
       </c>
       <c r="T12">
-        <v>0.01701678583395556</v>
+        <v>0.01868573755447946</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>86.127454</v>
+        <v>85.31435366666666</v>
       </c>
       <c r="H13">
-        <v>258.382362</v>
+        <v>255.943061</v>
       </c>
       <c r="I13">
-        <v>0.1861612083457225</v>
+        <v>0.2028222255490178</v>
       </c>
       <c r="J13">
-        <v>0.1861612083457225</v>
+        <v>0.2028222255490178</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.3751373333333334</v>
+        <v>0.6799149999999999</v>
       </c>
       <c r="N13">
-        <v>1.125412</v>
+        <v>2.039745</v>
       </c>
       <c r="O13">
-        <v>0.05024721957782963</v>
+        <v>0.09178732809324164</v>
       </c>
       <c r="P13">
-        <v>0.05024721957782963</v>
+        <v>0.09178732809324165</v>
       </c>
       <c r="Q13">
-        <v>32.30962342034934</v>
+        <v>58.00650877327165</v>
       </c>
       <c r="R13">
-        <v>290.786610783144</v>
+        <v>522.058578959445</v>
       </c>
       <c r="S13">
-        <v>0.009354083112621607</v>
+        <v>0.01861651016106915</v>
       </c>
       <c r="T13">
-        <v>0.009354083112621607</v>
+        <v>0.01861651016106915</v>
       </c>
     </row>
   </sheetData>
